--- a/src/main/resources/test_data/RegistrationData_result.xlsx
+++ b/src/main/resources/test_data/RegistrationData_result.xlsx
@@ -59,64 +59,64 @@
     <t>testtitle</t>
   </si>
   <si>
+    <t>Sign up is fail</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>18:02:17 | 25-11-2022</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>caca</t>
+  </si>
+  <si>
+    <t>supercuem159357@gmail.com</t>
+  </si>
+  <si>
+    <t>141414</t>
+  </si>
+  <si>
+    <t>151515</t>
+  </si>
+  <si>
     <t>Shoe Store</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>20:22:11 | 18-10-2022</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>captainemerica</t>
-  </si>
-  <si>
-    <t>supercuem159357@gmail.com</t>
-  </si>
-  <si>
-    <t>141414</t>
-  </si>
-  <si>
-    <t>151515</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>20:22:14 | 18-10-2022</t>
+    <t>18:02:26 | 25-11-2022</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>thanos</t>
-  </si>
-  <si>
-    <t>Thanos@gmail.com</t>
+    <t>thano</t>
+  </si>
+  <si>
+    <t>T@gmail.com</t>
   </si>
   <si>
     <t>123456789</t>
   </si>
   <si>
-    <t>20:22:17 | 18-10-2022</t>
+    <t>18:02:34 | 25-11-2022</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>blackwidow</t>
-  </si>
-  <si>
-    <t>thuanlnps17935@fpt.edu.vn</t>
+    <t>Backcc</t>
+  </si>
+  <si>
+    <t>thuan4@fpt.edu.vn</t>
   </si>
   <si>
     <t>242502</t>
   </si>
   <si>
-    <t>20:22:20 | 18-10-2022</t>
+    <t>18:02:46 | 25-11-2022</t>
   </si>
 </sst>
 </file>
@@ -268,13 +268,13 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -303,13 +303,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -338,13 +338,13 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
